--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicocaceres/Desktop/IIC2713-grupo13/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6B0F71-2387-7249-8FCF-E6CA396D0F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7245"/>
+    <workbookView xWindow="740" yWindow="580" windowWidth="28020" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -189,7 +195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,12 +232,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -246,21 +258,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,6 +291,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -318,7 +342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,9 +375,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,6 +427,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -561,143 +619,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:K38"/>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="I1" s="3" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="2"/>
+      <c r="I1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="J1" s="8"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="I2" s="6" t="s">
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="I2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="J2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="E3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="I3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I4" t="s">
+      <c r="J3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I5" s="4" t="s">
+      <c r="J4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I6" t="s">
+      <c r="J5" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="J6" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="8"/>
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="I7" t="s">
+      <c r="E7" s="5"/>
+      <c r="I7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="J7" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="J8" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
@@ -707,17 +768,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
       <c r="D10" t="s">
         <v>49</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
       <c r="D11" t="s">
         <v>25</v>
       </c>
@@ -725,7 +790,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
       <c r="D12" t="s">
         <v>28</v>
       </c>
@@ -733,7 +800,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="D13" t="s">
         <v>38</v>
       </c>
@@ -741,7 +810,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
       <c r="D14" t="s">
         <v>35</v>
       </c>
@@ -749,33 +820,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="D18" s="6" t="s">
+      <c r="B18" s="11"/>
+      <c r="D18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="G18" t="s">
+      <c r="E18" s="4"/>
+      <c r="G18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J18" t="s">
+      <c r="H18" s="7"/>
+      <c r="J18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M18" t="s">
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P18" t="s">
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D19" t="s">
@@ -784,36 +873,38 @@
       <c r="E19" t="s">
         <v>3</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H19" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="H19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="K19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="N19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Q19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="Q19" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
@@ -822,36 +913,38 @@
       <c r="E20" t="s">
         <v>2</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M20" t="s">
+      <c r="L20" s="7"/>
+      <c r="M20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="N20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Q20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="Q20" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D21" t="s">
@@ -860,24 +953,24 @@
       <c r="E21" t="s">
         <v>3</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H21" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="H21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="K21" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D22" t="s">
@@ -886,34 +979,34 @@
       <c r="E22" t="s">
         <v>3</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="H22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K22" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>40</v>
       </c>
       <c r="E23" t="s">
         <v>3</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H23" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>53</v>
       </c>
@@ -921,7 +1014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>21</v>
       </c>
@@ -929,45 +1022,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26" t="s">
         <v>2</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J27" t="s">
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J28" t="s">
+      <c r="K27" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J29" t="s">
+      <c r="K28" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
+      <c r="K29" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D32" s="7" t="s">
         <v>52</v>
       </c>
+      <c r="E32" s="7"/>
       <c r="G32" t="s">
         <v>47</v>
       </c>
@@ -975,11 +1070,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D33" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G33" t="s">
@@ -995,11 +1090,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D34" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G34" t="s">
@@ -1015,11 +1110,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D35" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G35" t="s">
@@ -1035,11 +1130,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D36" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G36" t="s">
@@ -1055,11 +1150,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D37" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G37" t="s">
@@ -1075,7 +1170,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.2">
       <c r="G38" t="s">
         <v>51</v>
       </c>
@@ -1103,24 +1198,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
